--- a/Project Progress.xlsx
+++ b/Project Progress.xlsx
@@ -677,9 +677,111 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,108 +795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1104,7 +1104,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13:AJ13"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,49 +1177,49 @@
       <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="40">
+      <c r="G1" s="34">
         <f>(SUM(G5,G9,G17,G21,G22,G23)/6)*100</f>
-        <v>4.7222222222222223</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="42"/>
-      <c r="AB1" s="43">
+        <v>0</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AB1" s="37">
         <f>G1/100</f>
-        <v>4.7222222222222221E-2</v>
-      </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
     </row>
     <row r="2" spans="1:68" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:68" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="38"/>
       <c r="H3" s="5">
         <v>41421</v>
       </c>
@@ -1442,19 +1442,19 @@
       </c>
       <c r="G5" s="2">
         <f>(G6+G7+G8)/3</f>
-        <v>0.28333333333333333</v>
-      </c>
-      <c r="H5" s="47">
+        <v>0</v>
+      </c>
+      <c r="H5" s="42">
         <f>G5*100</f>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
     </row>
     <row r="6" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1464,15 +1464,13 @@
       <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="30">
-        <v>0.85</v>
-      </c>
-      <c r="H6" s="54">
+      <c r="G6" s="30"/>
+      <c r="H6" s="49">
         <f>G6*100</f>
-        <v>85</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -1488,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="G7" s="31"/>
-      <c r="H7" s="57">
+      <c r="H7" s="52">
         <f>G7*100</f>
         <v>0</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="16"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1513,13 +1511,13 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="60">
+      <c r="L8" s="55">
         <f>G8*100</f>
         <v>0</v>
       </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1540,37 +1538,37 @@
         <v>0</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="44">
+      <c r="I9" s="39">
         <f>G9*100</f>
         <v>0</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="46"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="41"/>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -1583,24 +1581,24 @@
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="63">
+      <c r="I10" s="58">
         <f>G10*100</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="60"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
@@ -1640,22 +1638,22 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="66">
+      <c r="P11" s="61">
         <f>G11*100</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="67"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="62"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="22"/>
       <c r="AE11" s="22"/>
@@ -1698,17 +1696,17 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="68">
+      <c r="AC12" s="63">
         <f>G12*100</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="70"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="65"/>
       <c r="AK12" s="10"/>
     </row>
     <row r="13" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1728,37 +1726,37 @@
         <f>(G14+G15+G16)/3</f>
         <v>0</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="39">
         <f>G13*100</f>
         <v>0</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="46"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="41"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -1770,18 +1768,18 @@
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="71">
+      <c r="I14" s="66">
         <f>G14*100</f>
         <v>0</v>
       </c>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="73"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
       <c r="R14" s="28"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -1822,18 +1820,18 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="39">
+      <c r="R15" s="73">
         <f>G15*100</f>
         <v>0</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="72"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
@@ -1875,18 +1873,18 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="39">
+      <c r="AB16" s="73">
         <f>G16*100</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="38"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="72"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
     </row>
@@ -1907,37 +1905,37 @@
         <f>(G18+G19+G20)/3</f>
         <v>0</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="45">
         <f>G17*100</f>
         <v>0</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="53"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="48"/>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -1948,20 +1946,20 @@
         <v>34</v>
       </c>
       <c r="G18" s="30"/>
-      <c r="I18" s="39">
+      <c r="I18" s="73">
         <f>G18*100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="38"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
@@ -1996,20 +1994,20 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="35">
+      <c r="P19" s="69">
         <f>G19*100</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="38"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="72"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
@@ -2053,18 +2051,18 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="29"/>
-      <c r="AB20" s="39">
+      <c r="AB20" s="73">
         <f>G20*100</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="38"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="72"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
@@ -2112,25 +2110,25 @@
         <v>15</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="AK21" s="44">
+      <c r="AK21" s="39">
         <f>G21*100</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="AZ21" s="46"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="41"/>
     </row>
     <row r="22" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
@@ -2146,25 +2144,25 @@
         <v>18</v>
       </c>
       <c r="G22" s="30"/>
-      <c r="AK22" s="44">
+      <c r="AK22" s="39">
         <f>G22*100</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="46"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="40"/>
+      <c r="AV22" s="40"/>
+      <c r="AW22" s="40"/>
+      <c r="AX22" s="40"/>
+      <c r="AY22" s="40"/>
+      <c r="AZ22" s="41"/>
     </row>
     <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
@@ -2180,24 +2178,31 @@
         <v>20</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="BA23" s="44">
+      <c r="BA23" s="39">
         <f>G23*100</f>
         <v>0</v>
       </c>
-      <c r="BB23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="45"/>
-      <c r="BE23" s="45"/>
-      <c r="BF23" s="45"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="45"/>
-      <c r="BI23" s="45"/>
-      <c r="BJ23" s="45"/>
-      <c r="BK23" s="45"/>
-      <c r="BL23" s="46"/>
+      <c r="BB23" s="40"/>
+      <c r="BC23" s="40"/>
+      <c r="BD23" s="40"/>
+      <c r="BE23" s="40"/>
+      <c r="BF23" s="40"/>
+      <c r="BG23" s="40"/>
+      <c r="BH23" s="40"/>
+      <c r="BI23" s="40"/>
+      <c r="BJ23" s="40"/>
+      <c r="BK23" s="40"/>
+      <c r="BL23" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="P19:Z19"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="AB20:AJ20"/>
+    <mergeCell ref="R15:Z15"/>
+    <mergeCell ref="AB16:AJ16"/>
     <mergeCell ref="G1:Z1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="BA23:BL23"/>
@@ -2214,13 +2219,6 @@
     <mergeCell ref="P11:AB11"/>
     <mergeCell ref="AC12:AJ12"/>
     <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="P19:Z19"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="AB20:AJ20"/>
-    <mergeCell ref="R15:Z15"/>
-    <mergeCell ref="AB16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:AJ9">
     <cfRule type="dataBar" priority="21">

--- a/Project Progress.xlsx
+++ b/Project Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +677,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,9 +707,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,21 +795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -886,7 +886,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -921,7 +920,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,17 +1095,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8:O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -1170,56 +1168,56 @@
     <col min="67" max="67" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>39</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="34">
+      <c r="G1" s="40">
         <f>(SUM(G5,G9,G17,G21,G22,G23)/6)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AB1" s="37">
+        <v>13.888888888888889</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="42"/>
+      <c r="AB1" s="43">
         <f>G1/100</f>
-        <v>0</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
     </row>
-    <row r="2" spans="1:68" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:68" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="21" customHeight="1"/>
+    <row r="3" spans="1:68" ht="54.75" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="34"/>
       <c r="H3" s="5">
         <v>41421</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>41481</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" ht="15.75" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1442,21 +1440,21 @@
       </c>
       <c r="G5" s="2">
         <f>(G6+G7+G8)/3</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="42">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H5" s="47">
         <f>G5*100</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
     </row>
-    <row r="6" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1464,20 +1462,22 @@
       <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="49">
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="54">
         <f>G6*100</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+        <v>100</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1485,20 +1485,22 @@
       <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="52">
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="57">
         <f>G7*100</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="16"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1506,21 +1508,23 @@
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="30">
+        <v>0.5</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="55">
+      <c r="L8" s="60">
         <f>G8*100</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
+        <v>50</v>
+      </c>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" ht="15.75" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1538,39 +1542,39 @@
         <v>0</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="39">
+      <c r="I9" s="44">
         <f>G9*100</f>
         <v>0</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="41"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="46"/>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1581,24 +1585,24 @@
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="58">
+      <c r="I10" s="63">
         <f>G10*100</f>
         <v>0</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="60"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
@@ -1620,7 +1624,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -1638,22 +1642,22 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="61">
+      <c r="P11" s="66">
         <f>G11*100</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="62"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="67"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="22"/>
       <c r="AE11" s="22"/>
@@ -1665,7 +1669,7 @@
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" ht="15.75" thickBot="1">
       <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1696,20 +1700,20 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="63">
+      <c r="AC12" s="68">
         <f>G12*100</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="65"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="70"/>
       <c r="AK12" s="10"/>
     </row>
-    <row r="13" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" ht="15.75" thickBot="1">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1726,39 +1730,39 @@
         <f>(G14+G15+G16)/3</f>
         <v>0</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="44">
         <f>G13*100</f>
         <v>0</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="41"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="46"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1768,18 +1772,18 @@
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="27"/>
-      <c r="I14" s="66">
+      <c r="I14" s="71">
         <f>G14*100</f>
         <v>0</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
       <c r="R14" s="28"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -1802,7 +1806,7 @@
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -1820,18 +1824,18 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="73">
+      <c r="R15" s="39">
         <f>G15*100</f>
         <v>0</v>
       </c>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="72"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
@@ -1845,7 +1849,7 @@
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
     </row>
-    <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -1873,22 +1877,22 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="73">
+      <c r="AB16" s="39">
         <f>G16*100</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="72"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="38"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
     </row>
-    <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:68" ht="15.75" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
@@ -1905,39 +1909,39 @@
         <f>(G18+G19+G20)/3</f>
         <v>0</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="50">
         <f>G17*100</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="48"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="53"/>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
@@ -1946,20 +1950,20 @@
         <v>34</v>
       </c>
       <c r="G18" s="30"/>
-      <c r="I18" s="73">
+      <c r="I18" s="39">
         <f>G18*100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="72"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="38"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
@@ -1978,7 +1982,7 @@
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68">
       <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
@@ -1994,20 +1998,20 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="69">
+      <c r="P19" s="35">
         <f>G19*100</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="72"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="38"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
@@ -2019,7 +2023,7 @@
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
     </row>
-    <row r="20" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:68" ht="15.75" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
@@ -2051,18 +2055,18 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="29"/>
-      <c r="AB20" s="73">
+      <c r="AB20" s="39">
         <f>G20*100</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="72"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="38"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
@@ -2096,7 +2100,7 @@
       <c r="BO20" s="12"/>
       <c r="BP20" s="12"/>
     </row>
-    <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:68" ht="15.75" thickBot="1">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -2110,27 +2114,27 @@
         <v>15</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="AK21" s="39">
+      <c r="AK21" s="44">
         <f>G21*100</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
-      <c r="AO21" s="40"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="40"/>
-      <c r="AV21" s="40"/>
-      <c r="AW21" s="40"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="40"/>
-      <c r="AZ21" s="41"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="46"/>
     </row>
-    <row r="22" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:68" ht="15.75" thickBot="1">
       <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
@@ -2144,27 +2148,27 @@
         <v>18</v>
       </c>
       <c r="G22" s="30"/>
-      <c r="AK22" s="39">
+      <c r="AK22" s="44">
         <f>G22*100</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="40"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="40"/>
-      <c r="AQ22" s="40"/>
-      <c r="AR22" s="40"/>
-      <c r="AS22" s="40"/>
-      <c r="AT22" s="40"/>
-      <c r="AU22" s="40"/>
-      <c r="AV22" s="40"/>
-      <c r="AW22" s="40"/>
-      <c r="AX22" s="40"/>
-      <c r="AY22" s="40"/>
-      <c r="AZ22" s="41"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="46"/>
     </row>
-    <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:68" ht="15.75" thickBot="1">
       <c r="A23" s="11" t="s">
         <v>8</v>
       </c>
@@ -2178,31 +2182,24 @@
         <v>20</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="BA23" s="39">
+      <c r="BA23" s="44">
         <f>G23*100</f>
         <v>0</v>
       </c>
-      <c r="BB23" s="40"/>
-      <c r="BC23" s="40"/>
-      <c r="BD23" s="40"/>
-      <c r="BE23" s="40"/>
-      <c r="BF23" s="40"/>
-      <c r="BG23" s="40"/>
-      <c r="BH23" s="40"/>
-      <c r="BI23" s="40"/>
-      <c r="BJ23" s="40"/>
-      <c r="BK23" s="40"/>
-      <c r="BL23" s="41"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="45"/>
+      <c r="BK23" s="45"/>
+      <c r="BL23" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="P19:Z19"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="AB20:AJ20"/>
-    <mergeCell ref="R15:Z15"/>
-    <mergeCell ref="AB16:AJ16"/>
     <mergeCell ref="G1:Z1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="BA23:BL23"/>
@@ -2219,6 +2216,13 @@
     <mergeCell ref="P11:AB11"/>
     <mergeCell ref="AC12:AJ12"/>
     <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="P19:Z19"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="AB20:AJ20"/>
+    <mergeCell ref="R15:Z15"/>
+    <mergeCell ref="AB16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:AJ9">
     <cfRule type="dataBar" priority="21">
@@ -2812,24 +2816,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Progress.xlsx
+++ b/Project Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,6 +886,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -920,6 +921,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1095,17 +1097,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8:O8"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -1168,7 +1170,7 @@
     <col min="67" max="67" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>39</v>
       </c>
@@ -1177,7 +1179,7 @@
       </c>
       <c r="G1" s="40">
         <f>(SUM(G5,G9,G17,G21,G22,G23)/6)*100</f>
-        <v>13.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="H1" s="41"/>
       <c r="I1" s="41"/>
@@ -1200,13 +1202,13 @@
       <c r="Z1" s="42"/>
       <c r="AB1" s="43">
         <f>G1/100</f>
-        <v>0.1388888888888889</v>
+        <v>0</v>
       </c>
       <c r="AC1" s="34"/>
       <c r="AD1" s="34"/>
     </row>
-    <row r="2" spans="1:68" ht="21" customHeight="1"/>
-    <row r="3" spans="1:68" ht="54.75" customHeight="1">
+    <row r="2" spans="1:68" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:68" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>41481</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1">
+    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.75" thickBot="1">
+    <row r="5" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1440,11 +1442,11 @@
       </c>
       <c r="G5" s="2">
         <f>(G6+G7+G8)/3</f>
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="H5" s="47">
         <f>G5*100</f>
-        <v>83.333333333333343</v>
+        <v>0</v>
       </c>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
@@ -1454,7 +1456,7 @@
       <c r="N5" s="48"/>
       <c r="O5" s="49"/>
     </row>
-    <row r="6" spans="1:68" ht="15.75" customHeight="1">
+    <row r="6" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1462,12 +1464,10 @@
       <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="30">
-        <v>1</v>
-      </c>
+      <c r="G6" s="30"/>
       <c r="H6" s="54">
         <f>G6*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="56"/>
@@ -1477,7 +1477,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1485,12 +1485,10 @@
       <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="31">
-        <v>1</v>
-      </c>
+      <c r="G7" s="31"/>
       <c r="H7" s="57">
         <f>G7*100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="58"/>
       <c r="J7" s="58"/>
@@ -1500,7 +1498,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:68" ht="15.75" thickBot="1">
+    <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1508,23 +1506,21 @@
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30">
-        <v>0.5</v>
-      </c>
+      <c r="G8" s="30"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="60">
         <f>G8*100</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M8" s="61"/>
       <c r="N8" s="61"/>
       <c r="O8" s="62"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:68" ht="15.75" thickBot="1">
+    <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1574,7 +1570,7 @@
       <c r="AI9" s="45"/>
       <c r="AJ9" s="46"/>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1624,7 +1620,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -1669,7 +1665,7 @@
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" spans="1:68" ht="15.75" thickBot="1">
+    <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1713,7 +1709,7 @@
       <c r="AJ12" s="70"/>
       <c r="AK12" s="10"/>
     </row>
-    <row r="13" spans="1:68" ht="15.75" thickBot="1">
+    <row r="13" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1728,11 +1724,11 @@
       </c>
       <c r="G13" s="2">
         <f>(G14+G15+G16)/3</f>
-        <v>0</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="I13" s="44">
         <f>G13*100</f>
-        <v>0</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
@@ -1762,7 +1758,7 @@
       <c r="AI13" s="45"/>
       <c r="AJ13" s="46"/>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1770,11 +1766,13 @@
       <c r="F14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="30">
+        <v>0.02</v>
+      </c>
       <c r="H14" s="27"/>
       <c r="I14" s="71">
         <f>G14*100</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="72"/>
       <c r="K14" s="72"/>
@@ -1806,7 +1804,7 @@
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -1814,7 +1812,9 @@
       <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="30">
+        <v>0.02</v>
+      </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -1826,7 +1826,7 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="39">
         <f>G15*100</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
@@ -1849,7 +1849,7 @@
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
     </row>
-    <row r="16" spans="1:68" ht="15.75" thickBot="1">
+    <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
     </row>
-    <row r="17" spans="1:68" ht="15.75" thickBot="1">
+    <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="AI17" s="52"/>
       <c r="AJ17" s="53"/>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
     </row>
-    <row r="20" spans="1:68" ht="15.75" thickBot="1">
+    <row r="20" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="BO20" s="12"/>
       <c r="BP20" s="12"/>
     </row>
-    <row r="21" spans="1:68" ht="15.75" thickBot="1">
+    <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="AY21" s="45"/>
       <c r="AZ21" s="46"/>
     </row>
-    <row r="22" spans="1:68" ht="15.75" thickBot="1">
+    <row r="22" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="AY22" s="45"/>
       <c r="AZ22" s="46"/>
     </row>
-    <row r="23" spans="1:68" ht="15.75" thickBot="1">
+    <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>8</v>
       </c>
@@ -2816,24 +2816,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Progress.xlsx
+++ b/Project Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,9 +677,111 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,108 +795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -886,7 +886,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -921,7 +920,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,17 +1095,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -1170,56 +1168,56 @@
     <col min="67" max="67" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>39</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="40">
+      <c r="G1" s="34">
         <f>(SUM(G5,G9,G17,G21,G22,G23)/6)*100</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="42"/>
-      <c r="AB1" s="43">
+        <v>24.444444444444446</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AB1" s="37">
         <f>G1/100</f>
-        <v>0</v>
-      </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
     </row>
-    <row r="2" spans="1:68" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:68" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="21" customHeight="1"/>
+    <row r="3" spans="1:68" ht="54.75" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="38"/>
       <c r="H3" s="5">
         <v>41421</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>41481</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" ht="15.75" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1442,21 +1440,21 @@
       </c>
       <c r="G5" s="2">
         <f>(G6+G7+G8)/3</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="47">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="H5" s="42">
         <f>G5*100</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+        <v>96.666666666666671</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
     </row>
-    <row r="6" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1464,20 +1462,22 @@
       <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="54">
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="49">
         <f>G6*100</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
+        <v>100</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1485,20 +1485,22 @@
       <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="57">
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="52">
         <f>G7*100</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="16"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1506,21 +1508,23 @@
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="30">
+        <v>0.9</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="60">
+      <c r="L8" s="55">
         <f>G8*100</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
+        <v>90</v>
+      </c>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" ht="15.75" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1535,42 +1539,42 @@
       </c>
       <c r="G9" s="2">
         <f>(G10+G11+G12)/3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="44">
+      <c r="I9" s="39">
         <f>G9*100</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="46"/>
+        <v>50</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="41"/>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1579,26 +1583,28 @@
       <c r="F10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="30">
+        <v>1</v>
+      </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="63">
+      <c r="I10" s="58">
         <f>G10*100</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
+        <v>100</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="60"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
@@ -1620,7 +1626,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -1629,7 +1635,9 @@
       <c r="F11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="30">
+        <v>0.5</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1638,22 +1646,22 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="66">
+      <c r="P11" s="61">
         <f>G11*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="67"/>
+        <v>50</v>
+      </c>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="62"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="22"/>
       <c r="AE11" s="22"/>
@@ -1665,7 +1673,7 @@
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" ht="15.75" thickBot="1">
       <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1696,20 +1704,20 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="68">
+      <c r="AC12" s="63">
         <f>G12*100</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="70"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="65"/>
       <c r="AK12" s="10"/>
     </row>
-    <row r="13" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" ht="15.75" thickBot="1">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1726,39 +1734,39 @@
         <f>(G14+G15+G16)/3</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="39">
         <f>G13*100</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="46"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="41"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1770,18 +1778,18 @@
         <v>0.02</v>
       </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="71">
+      <c r="I14" s="66">
         <f>G14*100</f>
         <v>2</v>
       </c>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="73"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
       <c r="R14" s="28"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -1804,7 +1812,7 @@
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -1824,18 +1832,18 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="39">
+      <c r="R15" s="73">
         <f>G15*100</f>
         <v>2</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="72"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
@@ -1849,7 +1857,7 @@
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
     </row>
-    <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -1877,22 +1885,22 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="39">
+      <c r="AB16" s="73">
         <f>G16*100</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="38"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="72"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
     </row>
-    <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:68" ht="15.75" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
@@ -1909,39 +1917,39 @@
         <f>(G18+G19+G20)/3</f>
         <v>0</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="45">
         <f>G17*100</f>
         <v>0</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="53"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="48"/>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
@@ -1950,20 +1958,20 @@
         <v>34</v>
       </c>
       <c r="G18" s="30"/>
-      <c r="I18" s="39">
+      <c r="I18" s="73">
         <f>G18*100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="38"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
@@ -1982,7 +1990,7 @@
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68">
       <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
@@ -1998,20 +2006,20 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="35">
+      <c r="P19" s="69">
         <f>G19*100</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="38"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="72"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
@@ -2023,7 +2031,7 @@
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
     </row>
-    <row r="20" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:68" ht="15.75" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
@@ -2055,18 +2063,18 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="29"/>
-      <c r="AB20" s="39">
+      <c r="AB20" s="73">
         <f>G20*100</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="38"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="72"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
@@ -2100,7 +2108,7 @@
       <c r="BO20" s="12"/>
       <c r="BP20" s="12"/>
     </row>
-    <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:68" ht="15.75" thickBot="1">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -2114,27 +2122,27 @@
         <v>15</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="AK21" s="44">
+      <c r="AK21" s="39">
         <f>G21*100</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="AZ21" s="46"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="41"/>
     </row>
-    <row r="22" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:68" ht="15.75" thickBot="1">
       <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
@@ -2148,27 +2156,27 @@
         <v>18</v>
       </c>
       <c r="G22" s="30"/>
-      <c r="AK22" s="44">
+      <c r="AK22" s="39">
         <f>G22*100</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="46"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="40"/>
+      <c r="AV22" s="40"/>
+      <c r="AW22" s="40"/>
+      <c r="AX22" s="40"/>
+      <c r="AY22" s="40"/>
+      <c r="AZ22" s="41"/>
     </row>
-    <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:68" ht="15.75" thickBot="1">
       <c r="A23" s="11" t="s">
         <v>8</v>
       </c>
@@ -2182,24 +2190,31 @@
         <v>20</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="BA23" s="44">
+      <c r="BA23" s="39">
         <f>G23*100</f>
         <v>0</v>
       </c>
-      <c r="BB23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="45"/>
-      <c r="BE23" s="45"/>
-      <c r="BF23" s="45"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="45"/>
-      <c r="BI23" s="45"/>
-      <c r="BJ23" s="45"/>
-      <c r="BK23" s="45"/>
-      <c r="BL23" s="46"/>
+      <c r="BB23" s="40"/>
+      <c r="BC23" s="40"/>
+      <c r="BD23" s="40"/>
+      <c r="BE23" s="40"/>
+      <c r="BF23" s="40"/>
+      <c r="BG23" s="40"/>
+      <c r="BH23" s="40"/>
+      <c r="BI23" s="40"/>
+      <c r="BJ23" s="40"/>
+      <c r="BK23" s="40"/>
+      <c r="BL23" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="P19:Z19"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="AB20:AJ20"/>
+    <mergeCell ref="R15:Z15"/>
+    <mergeCell ref="AB16:AJ16"/>
     <mergeCell ref="G1:Z1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="BA23:BL23"/>
@@ -2216,13 +2231,6 @@
     <mergeCell ref="P11:AB11"/>
     <mergeCell ref="AC12:AJ12"/>
     <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="P19:Z19"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="AB20:AJ20"/>
-    <mergeCell ref="R15:Z15"/>
-    <mergeCell ref="AB16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:AJ9">
     <cfRule type="dataBar" priority="21">
@@ -2816,24 +2824,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Progress.xlsx
+++ b/Project Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Activities</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>Diagrams and Gallery Modules</t>
-  </si>
-  <si>
-    <t>Varshini</t>
-  </si>
-  <si>
-    <t>Sri (Varshini partially)</t>
   </si>
   <si>
     <t>Overall Progress:</t>
@@ -141,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +671,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,9 +701,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,21 +789,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -886,6 +880,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -920,6 +915,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1095,17 +1091,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -1168,56 +1164,56 @@
     <col min="67" max="67" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="34">
+        <v>34</v>
+      </c>
+      <c r="G1" s="40">
         <f>(SUM(G5,G9,G17,G21,G22,G23)/6)*100</f>
-        <v>24.444444444444446</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AB1" s="37">
+        <v>27.222222222222225</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="42"/>
+      <c r="AB1" s="43">
         <f>G1/100</f>
-        <v>0.24444444444444446</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
+        <v>0.27222222222222225</v>
+      </c>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
     </row>
-    <row r="2" spans="1:68" ht="21" customHeight="1"/>
-    <row r="3" spans="1:68" ht="54.75" customHeight="1">
+    <row r="2" spans="1:68" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:68" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="38"/>
+      <c r="B3" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="34"/>
       <c r="H3" s="5">
         <v>41421</v>
       </c>
@@ -1402,7 +1398,7 @@
         <v>41481</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1">
+    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.75" thickBot="1">
+    <row r="5" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1442,19 +1438,19 @@
         <f>(G6+G7+G8)/3</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="47">
         <f>G5*100</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
     </row>
-    <row r="6" spans="1:68" ht="15.75" customHeight="1">
+    <row r="6" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1465,19 +1461,19 @@
       <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="54">
         <f>G6*100</f>
         <v>100</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1488,19 +1484,19 @@
       <c r="G7" s="31">
         <v>1</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="57">
         <f>G7*100</f>
         <v>100</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="16"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:68" ht="15.75" thickBot="1">
+    <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1515,16 +1511,16 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="55">
+      <c r="L8" s="60">
         <f>G8*100</f>
         <v>90</v>
       </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:68" ht="15.75" thickBot="1">
+    <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1542,39 +1538,39 @@
         <v>0.5</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="39">
+      <c r="I9" s="44">
         <f>G9*100</f>
         <v>50</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="41"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="46"/>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1587,24 +1583,24 @@
         <v>1</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="58">
+      <c r="I10" s="63">
         <f>G10*100</f>
         <v>100</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="60"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
@@ -1626,7 +1622,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -1646,22 +1642,22 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="61">
+      <c r="P11" s="66">
         <f>G11*100</f>
         <v>50</v>
       </c>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="62"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="67"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="22"/>
       <c r="AE11" s="22"/>
@@ -1673,7 +1669,7 @@
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" spans="1:68" ht="15.75" thickBot="1">
+    <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1704,20 +1700,20 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="63">
+      <c r="AC12" s="68">
         <f>G12*100</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="65"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="70"/>
       <c r="AK12" s="10"/>
     </row>
-    <row r="13" spans="1:68" ht="15.75" thickBot="1">
+    <row r="13" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1734,39 +1730,39 @@
         <f>(G14+G15+G16)/3</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="44">
         <f>G13*100</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="41"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="46"/>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1778,18 +1774,18 @@
         <v>0.02</v>
       </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="66">
+      <c r="I14" s="71">
         <f>G14*100</f>
         <v>2</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
       <c r="R14" s="28"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -1812,7 +1808,7 @@
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -1832,18 +1828,18 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="73">
+      <c r="R15" s="39">
         <f>G15*100</f>
         <v>2</v>
       </c>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="72"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
@@ -1857,7 +1853,7 @@
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
     </row>
-    <row r="16" spans="1:68" ht="15.75" thickBot="1">
+    <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -1885,22 +1881,22 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="73">
+      <c r="AB16" s="39">
         <f>G16*100</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="72"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="38"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
     </row>
-    <row r="17" spans="1:68" ht="15.75" thickBot="1">
+    <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
@@ -1915,63 +1911,65 @@
       </c>
       <c r="G17" s="2">
         <f>(G18+G19+G20)/3</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="45">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I17" s="50">
         <f>G17*100</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="48"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="53"/>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1"/>
       <c r="F18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="I18" s="73">
+        <v>17</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="39">
         <f>G18*100</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="72"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="38"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
@@ -1990,13 +1988,13 @@
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="1"/>
       <c r="F19" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G19" s="30"/>
       <c r="I19" s="14"/>
@@ -2006,20 +2004,20 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="69">
+      <c r="P19" s="35">
         <f>G19*100</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="72"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="38"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
@@ -2031,7 +2029,7 @@
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
     </row>
-    <row r="20" spans="1:68" ht="15.75" thickBot="1">
+    <row r="20" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
@@ -2063,18 +2061,18 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="29"/>
-      <c r="AB20" s="73">
+      <c r="AB20" s="39">
         <f>G20*100</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="72"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="38"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
@@ -2108,7 +2106,7 @@
       <c r="BO20" s="12"/>
       <c r="BP20" s="12"/>
     </row>
-    <row r="21" spans="1:68" ht="15.75" thickBot="1">
+    <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -2122,27 +2120,27 @@
         <v>15</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="AK21" s="39">
+      <c r="AK21" s="44">
         <f>G21*100</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
-      <c r="AO21" s="40"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="40"/>
-      <c r="AV21" s="40"/>
-      <c r="AW21" s="40"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="40"/>
-      <c r="AZ21" s="41"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="46"/>
     </row>
-    <row r="22" spans="1:68" ht="15.75" thickBot="1">
+    <row r="22" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
@@ -2156,27 +2154,27 @@
         <v>18</v>
       </c>
       <c r="G22" s="30"/>
-      <c r="AK22" s="39">
+      <c r="AK22" s="44">
         <f>G22*100</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="40"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="40"/>
-      <c r="AQ22" s="40"/>
-      <c r="AR22" s="40"/>
-      <c r="AS22" s="40"/>
-      <c r="AT22" s="40"/>
-      <c r="AU22" s="40"/>
-      <c r="AV22" s="40"/>
-      <c r="AW22" s="40"/>
-      <c r="AX22" s="40"/>
-      <c r="AY22" s="40"/>
-      <c r="AZ22" s="41"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="46"/>
     </row>
-    <row r="23" spans="1:68" ht="15.75" thickBot="1">
+    <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>8</v>
       </c>
@@ -2190,31 +2188,24 @@
         <v>20</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="BA23" s="39">
+      <c r="BA23" s="44">
         <f>G23*100</f>
         <v>0</v>
       </c>
-      <c r="BB23" s="40"/>
-      <c r="BC23" s="40"/>
-      <c r="BD23" s="40"/>
-      <c r="BE23" s="40"/>
-      <c r="BF23" s="40"/>
-      <c r="BG23" s="40"/>
-      <c r="BH23" s="40"/>
-      <c r="BI23" s="40"/>
-      <c r="BJ23" s="40"/>
-      <c r="BK23" s="40"/>
-      <c r="BL23" s="41"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="45"/>
+      <c r="BK23" s="45"/>
+      <c r="BL23" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="P19:Z19"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="AB20:AJ20"/>
-    <mergeCell ref="R15:Z15"/>
-    <mergeCell ref="AB16:AJ16"/>
     <mergeCell ref="G1:Z1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="BA23:BL23"/>
@@ -2231,6 +2222,13 @@
     <mergeCell ref="P11:AB11"/>
     <mergeCell ref="AC12:AJ12"/>
     <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="P19:Z19"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="AB20:AJ20"/>
+    <mergeCell ref="R15:Z15"/>
+    <mergeCell ref="AB16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:AJ9">
     <cfRule type="dataBar" priority="21">
@@ -2824,24 +2822,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Progress.xlsx
+++ b/Project Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -135,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,9 +671,111 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,108 +789,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -880,7 +880,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -915,7 +914,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1091,17 +1089,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -1164,56 +1162,56 @@
     <col min="67" max="67" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="40">
+      <c r="G1" s="34">
         <f>(SUM(G5,G9,G17,G21,G22,G23)/6)*100</f>
-        <v>27.222222222222225</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="42"/>
-      <c r="AB1" s="43">
+        <v>30</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AB1" s="37">
         <f>G1/100</f>
-        <v>0.27222222222222225</v>
-      </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
     </row>
-    <row r="2" spans="1:68" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:68" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="21" customHeight="1"/>
+    <row r="3" spans="1:68" ht="54.75" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="38"/>
       <c r="H3" s="5">
         <v>41421</v>
       </c>
@@ -1398,7 +1396,7 @@
         <v>41481</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" ht="15.75" thickBot="1">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1438,19 +1436,19 @@
         <f>(G6+G7+G8)/3</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="42">
         <f>G5*100</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
     </row>
-    <row r="6" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1461,19 +1459,19 @@
       <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="49">
         <f>G6*100</f>
         <v>100</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1484,19 +1482,19 @@
       <c r="G7" s="31">
         <v>1</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="52">
         <f>G7*100</f>
         <v>100</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="16"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1511,16 +1509,16 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="60">
+      <c r="L8" s="55">
         <f>G8*100</f>
         <v>90</v>
       </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" ht="15.75" thickBot="1">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1535,42 +1533,42 @@
       </c>
       <c r="G9" s="2">
         <f>(G10+G11+G12)/3</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="44">
+      <c r="I9" s="39">
         <f>G9*100</f>
-        <v>50</v>
-      </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="46"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="41"/>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1583,24 +1581,24 @@
         <v>1</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="63">
+      <c r="I10" s="58">
         <f>G10*100</f>
         <v>100</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="60"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
@@ -1622,7 +1620,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -1632,7 +1630,7 @@
         <v>29</v>
       </c>
       <c r="G11" s="30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="18"/>
@@ -1642,22 +1640,22 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="66">
+      <c r="P11" s="61">
         <f>G11*100</f>
-        <v>50</v>
-      </c>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="67"/>
+        <v>100</v>
+      </c>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="62"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="22"/>
       <c r="AE11" s="22"/>
@@ -1669,7 +1667,7 @@
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" ht="15.75" thickBot="1">
       <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1700,20 +1698,20 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="68">
+      <c r="AC12" s="63">
         <f>G12*100</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="70"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="65"/>
       <c r="AK12" s="10"/>
     </row>
-    <row r="13" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" ht="15.75" thickBot="1">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1730,39 +1728,39 @@
         <f>(G14+G15+G16)/3</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="39">
         <f>G13*100</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="46"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="41"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1774,18 +1772,18 @@
         <v>0.02</v>
       </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="71">
+      <c r="I14" s="66">
         <f>G14*100</f>
         <v>2</v>
       </c>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="73"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
       <c r="R14" s="28"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -1808,7 +1806,7 @@
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -1828,18 +1826,18 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="39">
+      <c r="R15" s="73">
         <f>G15*100</f>
         <v>2</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="72"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
@@ -1853,7 +1851,7 @@
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
     </row>
-    <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -1881,22 +1879,22 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="39">
+      <c r="AB16" s="73">
         <f>G16*100</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="38"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="72"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
     </row>
-    <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:68" ht="15.75" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
@@ -1913,39 +1911,39 @@
         <f>(G18+G19+G20)/3</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="45">
         <f>G17*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="53"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="48"/>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
@@ -1956,20 +1954,20 @@
       <c r="G18" s="30">
         <v>0.5</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="73">
         <f>G18*100</f>
         <v>50</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="38"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
@@ -1988,7 +1986,7 @@
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68">
       <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
@@ -2004,20 +2002,20 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="35">
+      <c r="P19" s="69">
         <f>G19*100</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="38"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="72"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
@@ -2029,7 +2027,7 @@
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
     </row>
-    <row r="20" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:68" ht="15.75" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
@@ -2061,18 +2059,18 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="29"/>
-      <c r="AB20" s="39">
+      <c r="AB20" s="73">
         <f>G20*100</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="38"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="72"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
@@ -2106,7 +2104,7 @@
       <c r="BO20" s="12"/>
       <c r="BP20" s="12"/>
     </row>
-    <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:68" ht="15.75" thickBot="1">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -2120,27 +2118,27 @@
         <v>15</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="AK21" s="44">
+      <c r="AK21" s="39">
         <f>G21*100</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="AZ21" s="46"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="41"/>
     </row>
-    <row r="22" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:68" ht="15.75" thickBot="1">
       <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
@@ -2154,27 +2152,27 @@
         <v>18</v>
       </c>
       <c r="G22" s="30"/>
-      <c r="AK22" s="44">
+      <c r="AK22" s="39">
         <f>G22*100</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="46"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="40"/>
+      <c r="AV22" s="40"/>
+      <c r="AW22" s="40"/>
+      <c r="AX22" s="40"/>
+      <c r="AY22" s="40"/>
+      <c r="AZ22" s="41"/>
     </row>
-    <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:68" ht="15.75" thickBot="1">
       <c r="A23" s="11" t="s">
         <v>8</v>
       </c>
@@ -2188,24 +2186,31 @@
         <v>20</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="BA23" s="44">
+      <c r="BA23" s="39">
         <f>G23*100</f>
         <v>0</v>
       </c>
-      <c r="BB23" s="45"/>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="45"/>
-      <c r="BE23" s="45"/>
-      <c r="BF23" s="45"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="45"/>
-      <c r="BI23" s="45"/>
-      <c r="BJ23" s="45"/>
-      <c r="BK23" s="45"/>
-      <c r="BL23" s="46"/>
+      <c r="BB23" s="40"/>
+      <c r="BC23" s="40"/>
+      <c r="BD23" s="40"/>
+      <c r="BE23" s="40"/>
+      <c r="BF23" s="40"/>
+      <c r="BG23" s="40"/>
+      <c r="BH23" s="40"/>
+      <c r="BI23" s="40"/>
+      <c r="BJ23" s="40"/>
+      <c r="BK23" s="40"/>
+      <c r="BL23" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="P19:Z19"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="AB20:AJ20"/>
+    <mergeCell ref="R15:Z15"/>
+    <mergeCell ref="AB16:AJ16"/>
     <mergeCell ref="G1:Z1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="BA23:BL23"/>
@@ -2222,13 +2227,6 @@
     <mergeCell ref="P11:AB11"/>
     <mergeCell ref="AC12:AJ12"/>
     <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="P19:Z19"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="AB20:AJ20"/>
-    <mergeCell ref="R15:Z15"/>
-    <mergeCell ref="AB16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:AJ9">
     <cfRule type="dataBar" priority="21">
@@ -2822,24 +2820,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Progress.xlsx
+++ b/Project Progress.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -135,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +671,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,9 +701,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,21 +789,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -880,6 +880,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -914,6 +915,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1089,19 +1091,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="BH22" sqref="BH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" customWidth="1"/>
@@ -1162,56 +1164,56 @@
     <col min="67" max="67" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:68" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="34">
+      <c r="G1" s="40">
         <f>(SUM(G5,G9,G17,G21,G22,G23)/6)*100</f>
-        <v>30</v>
-      </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AB1" s="37">
+        <v>45.777777777777779</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="42"/>
+      <c r="AB1" s="43">
         <f>G1/100</f>
-        <v>0.3</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
+        <v>0.45777777777777778</v>
+      </c>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
     </row>
-    <row r="2" spans="1:68" ht="21" customHeight="1"/>
-    <row r="3" spans="1:68" ht="54.75" customHeight="1">
+    <row r="2" spans="1:68" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:68" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="34"/>
       <c r="H3" s="5">
         <v>41421</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>41481</v>
       </c>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1">
+    <row r="4" spans="1:68" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:68" ht="15.75" thickBot="1">
+    <row r="5" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1436,19 +1438,19 @@
         <f>(G6+G7+G8)/3</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="47">
         <f>G5*100</f>
         <v>96.666666666666671</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
     </row>
-    <row r="6" spans="1:68" ht="15.75" customHeight="1">
+    <row r="6" spans="1:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1459,19 +1461,19 @@
       <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="54">
         <f>G6*100</f>
         <v>100</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1482,19 +1484,19 @@
       <c r="G7" s="31">
         <v>1</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="57">
         <f>G7*100</f>
         <v>100</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="16"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:68" ht="15.75" thickBot="1">
+    <row r="8" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1509,16 +1511,16 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="55">
+      <c r="L8" s="60">
         <f>G8*100</f>
         <v>90</v>
       </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="23"/>
     </row>
-    <row r="9" spans="1:68" ht="15.75" thickBot="1">
+    <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1536,39 +1538,39 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="39">
+      <c r="I9" s="44">
         <f>G9*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="41"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="46"/>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1581,24 +1583,24 @@
         <v>1</v>
       </c>
       <c r="H10" s="17"/>
-      <c r="I10" s="58">
+      <c r="I10" s="63">
         <f>G10*100</f>
         <v>100</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="60"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
@@ -1620,7 +1622,7 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -1640,22 +1642,22 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="61">
+      <c r="P11" s="66">
         <f>G11*100</f>
         <v>100</v>
       </c>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="62"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="67"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="22"/>
       <c r="AE11" s="22"/>
@@ -1667,7 +1669,7 @@
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" spans="1:68" ht="15.75" thickBot="1">
+    <row r="12" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1698,20 +1700,20 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="63">
+      <c r="AC12" s="68">
         <f>G12*100</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="65"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="70"/>
       <c r="AK12" s="10"/>
     </row>
-    <row r="13" spans="1:68" ht="15.75" thickBot="1">
+    <row r="13" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1726,41 +1728,41 @@
       </c>
       <c r="G13" s="2">
         <f>(G14+G15+G16)/3</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="I13" s="39">
+        <v>0.32333333333333331</v>
+      </c>
+      <c r="I13" s="44">
         <f>G13*100</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="41"/>
+        <v>32.333333333333329</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="46"/>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1769,21 +1771,21 @@
         <v>16</v>
       </c>
       <c r="G14" s="30">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="66">
+      <c r="I14" s="71">
         <f>G14*100</f>
-        <v>2</v>
-      </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68"/>
+        <v>95</v>
+      </c>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
       <c r="R14" s="28"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -1806,7 +1808,7 @@
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
@@ -1826,18 +1828,18 @@
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="73">
+      <c r="R15" s="39">
         <f>G15*100</f>
         <v>2</v>
       </c>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="72"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
@@ -1851,7 +1853,7 @@
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
     </row>
-    <row r="16" spans="1:68" ht="15.75" thickBot="1">
+    <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
@@ -1879,22 +1881,22 @@
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="73">
+      <c r="AB16" s="39">
         <f>G16*100</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="72"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="38"/>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
     </row>
-    <row r="17" spans="1:68" ht="15.75" thickBot="1">
+    <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
@@ -1909,41 +1911,41 @@
       </c>
       <c r="G17" s="2">
         <f>(G18+G19+G20)/3</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I17" s="45">
+        <v>0.6133333333333334</v>
+      </c>
+      <c r="I17" s="50">
         <f>G17*100</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="48"/>
+        <v>61.333333333333343</v>
+      </c>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="53"/>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
@@ -1952,22 +1954,22 @@
         <v>17</v>
       </c>
       <c r="G18" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="73">
+        <v>0.92</v>
+      </c>
+      <c r="I18" s="39">
         <f>G18*100</f>
-        <v>50</v>
-      </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="72"/>
+        <v>92</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="38"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
@@ -1986,7 +1988,7 @@
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
@@ -1994,7 +1996,9 @@
       <c r="F19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="30">
+        <v>0.92</v>
+      </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
@@ -2002,20 +2006,20 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="P19" s="69">
+      <c r="P19" s="35">
         <f>G19*100</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="72"/>
+        <v>92</v>
+      </c>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="38"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
@@ -2027,7 +2031,7 @@
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
     </row>
-    <row r="20" spans="1:68" ht="15.75" thickBot="1">
+    <row r="20" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
@@ -2038,7 +2042,9 @@
       <c r="F20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="30">
+        <v>0</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -2059,18 +2065,18 @@
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="29"/>
-      <c r="AB20" s="73">
+      <c r="AB20" s="39">
         <f>G20*100</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="72"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="38"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
@@ -2104,7 +2110,7 @@
       <c r="BO20" s="12"/>
       <c r="BP20" s="12"/>
     </row>
-    <row r="21" spans="1:68" ht="15.75" thickBot="1">
+    <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
@@ -2117,28 +2123,30 @@
       <c r="F21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="AK21" s="39">
+      <c r="G21" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="AK21" s="44">
         <f>G21*100</f>
-        <v>0</v>
-      </c>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
-      <c r="AO21" s="40"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="40"/>
-      <c r="AV21" s="40"/>
-      <c r="AW21" s="40"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="40"/>
-      <c r="AZ21" s="41"/>
+        <v>50</v>
+      </c>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="46"/>
     </row>
-    <row r="22" spans="1:68" ht="15.75" thickBot="1">
+    <row r="22" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
@@ -2151,28 +2159,30 @@
       <c r="F22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="AK22" s="39">
+      <c r="G22" s="30">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="44">
         <f>G22*100</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="40"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="40"/>
-      <c r="AQ22" s="40"/>
-      <c r="AR22" s="40"/>
-      <c r="AS22" s="40"/>
-      <c r="AT22" s="40"/>
-      <c r="AU22" s="40"/>
-      <c r="AV22" s="40"/>
-      <c r="AW22" s="40"/>
-      <c r="AX22" s="40"/>
-      <c r="AY22" s="40"/>
-      <c r="AZ22" s="41"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="46"/>
     </row>
-    <row r="23" spans="1:68" ht="15.75" thickBot="1">
+    <row r="23" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>8</v>
       </c>
@@ -2185,32 +2195,27 @@
       <c r="F23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="BA23" s="39">
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="44">
         <f>G23*100</f>
         <v>0</v>
       </c>
-      <c r="BB23" s="40"/>
-      <c r="BC23" s="40"/>
-      <c r="BD23" s="40"/>
-      <c r="BE23" s="40"/>
-      <c r="BF23" s="40"/>
-      <c r="BG23" s="40"/>
-      <c r="BH23" s="40"/>
-      <c r="BI23" s="40"/>
-      <c r="BJ23" s="40"/>
-      <c r="BK23" s="40"/>
-      <c r="BL23" s="41"/>
+      <c r="BB23" s="45"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="45"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="45"/>
+      <c r="BK23" s="45"/>
+      <c r="BL23" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="P19:Z19"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="AB20:AJ20"/>
-    <mergeCell ref="R15:Z15"/>
-    <mergeCell ref="AB16:AJ16"/>
     <mergeCell ref="G1:Z1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="BA23:BL23"/>
@@ -2227,6 +2232,13 @@
     <mergeCell ref="P11:AB11"/>
     <mergeCell ref="AC12:AJ12"/>
     <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="P19:Z19"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="AB20:AJ20"/>
+    <mergeCell ref="R15:Z15"/>
+    <mergeCell ref="AB16:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:AJ9">
     <cfRule type="dataBar" priority="21">
@@ -2820,24 +2832,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
